--- a/VersionRecords/Version 5.0.2.3 20160927/版本Bug和特性计划及评审表v5.0.2.3_极光组.xlsx
+++ b/VersionRecords/Version 5.0.2.3 20160927/版本Bug和特性计划及评审表v5.0.2.3_极光组.xlsx
@@ -899,13 +899,13 @@
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="47.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="13" customWidth="1"/>
     <col min="3" max="3" width="15" style="12" customWidth="1"/>
     <col min="4" max="4" width="24" style="12" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="12" customWidth="1"/>
